--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2327,28 +2327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.3564347685125</v>
+        <v>446.5549573551164</v>
       </c>
       <c r="AB2" t="n">
-        <v>494.4238159710574</v>
+        <v>610.9961932675901</v>
       </c>
       <c r="AC2" t="n">
-        <v>447.236700902963</v>
+        <v>552.6835741206737</v>
       </c>
       <c r="AD2" t="n">
-        <v>361356.4347685125</v>
+        <v>446554.9573551164</v>
       </c>
       <c r="AE2" t="n">
-        <v>494423.8159710574</v>
+        <v>610996.1932675901</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.266556928847628e-06</v>
+        <v>2.343461921247602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.99869791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>447236.7009029631</v>
+        <v>552683.5741206737</v>
       </c>
     </row>
     <row r="3">
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>266.7759083191152</v>
+        <v>327.5833191869139</v>
       </c>
       <c r="AB3" t="n">
-        <v>365.0145670846524</v>
+        <v>448.2139492676113</v>
       </c>
       <c r="AC3" t="n">
-        <v>330.1780891032549</v>
+        <v>405.4370390217384</v>
       </c>
       <c r="AD3" t="n">
-        <v>266775.9083191152</v>
+        <v>327583.3191869139</v>
       </c>
       <c r="AE3" t="n">
-        <v>365014.5670846524</v>
+        <v>448213.9492676113</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.606105851554982e-06</v>
+        <v>2.971716327063622e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.459635416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>330178.0891032549</v>
+        <v>405437.0390217384</v>
       </c>
     </row>
     <row r="4">
@@ -2539,28 +2539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.823407428945</v>
+        <v>293.7160696427671</v>
       </c>
       <c r="AB4" t="n">
-        <v>318.5592574879476</v>
+        <v>401.8752843237093</v>
       </c>
       <c r="AC4" t="n">
-        <v>288.1564090541183</v>
+        <v>363.5208712233577</v>
       </c>
       <c r="AD4" t="n">
-        <v>232823.407428945</v>
+        <v>293716.0696427671</v>
       </c>
       <c r="AE4" t="n">
-        <v>318559.2574879476</v>
+        <v>401875.2843237093</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.743774068103272e-06</v>
+        <v>3.226438571203506e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.717447916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>288156.4090541183</v>
+        <v>363520.8712233577</v>
       </c>
     </row>
     <row r="5">
@@ -2645,28 +2645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>220.8194720521413</v>
+        <v>269.5166231608361</v>
       </c>
       <c r="AB5" t="n">
-        <v>302.1349435291598</v>
+        <v>368.7645340429003</v>
       </c>
       <c r="AC5" t="n">
-        <v>273.2996085678826</v>
+        <v>333.5701644781192</v>
       </c>
       <c r="AD5" t="n">
-        <v>220819.4720521413</v>
+        <v>269516.6231608361</v>
       </c>
       <c r="AE5" t="n">
-        <v>302134.9435291598</v>
+        <v>368764.5340429003</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.813331763137844e-06</v>
+        <v>3.355138518225692e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.37890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>273299.6085678826</v>
+        <v>333570.1644781192</v>
       </c>
     </row>
     <row r="6">
@@ -2751,28 +2751,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>213.5280512296787</v>
+        <v>262.2252023383734</v>
       </c>
       <c r="AB6" t="n">
-        <v>292.1584998850874</v>
+        <v>358.7880903988228</v>
       </c>
       <c r="AC6" t="n">
-        <v>264.2753027031707</v>
+        <v>324.5458586134059</v>
       </c>
       <c r="AD6" t="n">
-        <v>213528.0512296786</v>
+        <v>262225.2023383734</v>
       </c>
       <c r="AE6" t="n">
-        <v>292158.4998850874</v>
+        <v>358788.0903988228</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.844282603277388e-06</v>
+        <v>3.412405675860396e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.2421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>264275.3027031707</v>
+        <v>324545.8586134058</v>
       </c>
     </row>
     <row r="7">
@@ -2857,28 +2857,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>212.9076188883248</v>
+        <v>261.6047699970196</v>
       </c>
       <c r="AB7" t="n">
-        <v>291.3095969841044</v>
+        <v>357.9391874978393</v>
       </c>
       <c r="AC7" t="n">
-        <v>263.5074179036145</v>
+        <v>323.7779738138496</v>
       </c>
       <c r="AD7" t="n">
-        <v>212907.6188883248</v>
+        <v>261604.7699970196</v>
       </c>
       <c r="AE7" t="n">
-        <v>291309.5969841044</v>
+        <v>357939.1874978393</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.851121665238841e-06</v>
+        <v>3.425059731054189e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.209635416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>263507.4179036145</v>
+        <v>323777.9738138496</v>
       </c>
     </row>
   </sheetData>
@@ -3154,28 +3154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>293.5655476207402</v>
+        <v>364.0624795624721</v>
       </c>
       <c r="AB2" t="n">
-        <v>401.6693334526092</v>
+        <v>498.1263458404237</v>
       </c>
       <c r="AC2" t="n">
-        <v>363.3345760143416</v>
+        <v>450.5858665181302</v>
       </c>
       <c r="AD2" t="n">
-        <v>293565.5476207403</v>
+        <v>364062.4795624721</v>
       </c>
       <c r="AE2" t="n">
-        <v>401669.3334526093</v>
+        <v>498126.3458404237</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.461923508770863e-06</v>
+        <v>2.78665182987898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>363334.5760143416</v>
+        <v>450585.8665181302</v>
       </c>
     </row>
     <row r="3">
@@ -3260,28 +3260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.2138145936063</v>
+        <v>279.9470344026236</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.6745003915571</v>
+        <v>383.0358828611816</v>
       </c>
       <c r="AC3" t="n">
-        <v>273.7876708806057</v>
+        <v>346.4794757951477</v>
       </c>
       <c r="AD3" t="n">
-        <v>221213.8145936063</v>
+        <v>279947.0344026236</v>
       </c>
       <c r="AE3" t="n">
-        <v>302674.5003915571</v>
+        <v>383035.8828611816</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.776527786581637e-06</v>
+        <v>3.38633613701913e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.84765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>273787.6708806057</v>
+        <v>346479.4757951477</v>
       </c>
     </row>
     <row r="4">
@@ -3366,28 +3366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>203.0936761710189</v>
+        <v>250.0632733558666</v>
       </c>
       <c r="AB4" t="n">
-        <v>277.8817275976973</v>
+        <v>342.1476026183563</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.3610855253087</v>
+        <v>309.4935156317387</v>
       </c>
       <c r="AD4" t="n">
-        <v>203093.6761710189</v>
+        <v>250063.2733558666</v>
       </c>
       <c r="AE4" t="n">
-        <v>277881.7275976973</v>
+        <v>342147.6026183563</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.904383312793017e-06</v>
+        <v>3.630048502228057e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.255208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>251361.0855253087</v>
+        <v>309493.5156317387</v>
       </c>
     </row>
     <row r="5">
@@ -3472,28 +3472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>198.30372523036</v>
+        <v>245.2733224152078</v>
       </c>
       <c r="AB5" t="n">
-        <v>271.3279054029697</v>
+        <v>335.5937804236287</v>
       </c>
       <c r="AC5" t="n">
-        <v>245.4327509224967</v>
+        <v>303.5651810289266</v>
       </c>
       <c r="AD5" t="n">
-        <v>198303.7252303601</v>
+        <v>245273.3224152077</v>
       </c>
       <c r="AE5" t="n">
-        <v>271327.9054029697</v>
+        <v>335593.7804236287</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.930727104879251e-06</v>
+        <v>3.680263835645042e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.14453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>245432.7509224967</v>
+        <v>303565.1810289266</v>
       </c>
     </row>
   </sheetData>
@@ -3769,28 +3769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.5162867211774</v>
+        <v>206.2848053399197</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.0984414381431</v>
+        <v>282.2479713092683</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.6153621149983</v>
+        <v>255.3106210651104</v>
       </c>
       <c r="AD2" t="n">
-        <v>164516.2867211774</v>
+        <v>206284.8053399197</v>
       </c>
       <c r="AE2" t="n">
-        <v>225098.4414381431</v>
+        <v>282247.9713092683</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.095807124269632e-06</v>
+        <v>4.463520695820233e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.372395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>203615.3621149983</v>
+        <v>255310.6210651103</v>
       </c>
     </row>
     <row r="3">
@@ -3875,28 +3875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.8730789926999</v>
+        <v>204.6415976114423</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.8501321308328</v>
+        <v>279.9996620019579</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.581628292455</v>
+        <v>253.2768872425671</v>
       </c>
       <c r="AD3" t="n">
-        <v>162873.0789926999</v>
+        <v>204641.5976114423</v>
       </c>
       <c r="AE3" t="n">
-        <v>222850.1321308328</v>
+        <v>279999.6620019579</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.117496992816339e-06</v>
+        <v>4.509714439522476e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>201581.628292455</v>
+        <v>253276.8872425671</v>
       </c>
     </row>
   </sheetData>
@@ -4172,28 +4172,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.4183393390008</v>
+        <v>253.3056130323526</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.5354107685721</v>
+        <v>346.5839148056534</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.1888733198788</v>
+        <v>313.5064324102848</v>
       </c>
       <c r="AD2" t="n">
-        <v>209418.3393390008</v>
+        <v>253305.6130323526</v>
       </c>
       <c r="AE2" t="n">
-        <v>286535.4107685721</v>
+        <v>346583.9148056534</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.845977505846164e-06</v>
+        <v>3.747972549739294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.088541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>259188.8733198788</v>
+        <v>313506.4324102848</v>
       </c>
     </row>
     <row r="3">
@@ -4278,28 +4278,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.3250073415934</v>
+        <v>219.1269401803736</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.8874098380885</v>
+        <v>299.819146752972</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.9928921273051</v>
+        <v>271.2048281857723</v>
       </c>
       <c r="AD3" t="n">
-        <v>175325.0073415934</v>
+        <v>219126.9401803736</v>
       </c>
       <c r="AE3" t="n">
-        <v>239887.4098380885</v>
+        <v>299819.146752972</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.056957410689436e-06</v>
+        <v>4.176334699004338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.157552083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>216992.8921273051</v>
+        <v>271204.8281857723</v>
       </c>
     </row>
   </sheetData>
@@ -4575,28 +4575,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.8267002486695</v>
+        <v>193.0979942912145</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.1042335183076</v>
+        <v>264.2051946713939</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.1476189510149</v>
+        <v>238.989821706353</v>
       </c>
       <c r="AD2" t="n">
-        <v>152826.7002486695</v>
+        <v>193097.9942912145</v>
       </c>
       <c r="AE2" t="n">
-        <v>209104.2335183076</v>
+        <v>264205.194671394</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.137914835474272e-06</v>
+        <v>4.760718752436006e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.522135416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>189147.6189510149</v>
+        <v>238989.821706353</v>
       </c>
     </row>
   </sheetData>
@@ -4872,28 +4872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.7207545182869</v>
+        <v>377.1069956647971</v>
       </c>
       <c r="AB2" t="n">
-        <v>434.7195531823508</v>
+        <v>515.9744282550596</v>
       </c>
       <c r="AC2" t="n">
-        <v>393.2305291593514</v>
+        <v>466.7305529970543</v>
       </c>
       <c r="AD2" t="n">
-        <v>317720.7545182868</v>
+        <v>377106.9956647971</v>
       </c>
       <c r="AE2" t="n">
-        <v>434719.5531823508</v>
+        <v>515974.4282550596</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.413710422871423e-06</v>
+        <v>2.672992305518702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.02213541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>393230.5291593514</v>
+        <v>466730.5529970543</v>
       </c>
     </row>
     <row r="3">
@@ -4978,28 +4978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.5078585649061</v>
+        <v>288.8086693482966</v>
       </c>
       <c r="AB3" t="n">
-        <v>314.0227772604794</v>
+        <v>395.1607627415935</v>
       </c>
       <c r="AC3" t="n">
-        <v>284.0528841325682</v>
+        <v>357.4471741571488</v>
       </c>
       <c r="AD3" t="n">
-        <v>229507.8585649061</v>
+        <v>288808.6693482966</v>
       </c>
       <c r="AE3" t="n">
-        <v>314022.7772604793</v>
+        <v>395160.7627415935</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.731734247644794e-06</v>
+        <v>3.274300199156664e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.997395833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>284052.8841325682</v>
+        <v>357447.1741571488</v>
       </c>
     </row>
     <row r="4">
@@ -5084,28 +5084,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>211.5602537775764</v>
+        <v>258.9839237419258</v>
       </c>
       <c r="AB4" t="n">
-        <v>289.4660725980258</v>
+        <v>354.3532300280436</v>
       </c>
       <c r="AC4" t="n">
-        <v>261.83983689754</v>
+        <v>320.5342550920483</v>
       </c>
       <c r="AD4" t="n">
-        <v>211560.2537775764</v>
+        <v>258983.9237419258</v>
       </c>
       <c r="AE4" t="n">
-        <v>289466.0725980258</v>
+        <v>354353.2300280436</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.855569709887247e-06</v>
+        <v>3.508443792051808e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.3984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>261839.83689754</v>
+        <v>320534.2550920483</v>
       </c>
     </row>
     <row r="5">
@@ -5190,28 +5190,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>202.0879372249489</v>
+        <v>249.5116071892951</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.5056312016142</v>
+        <v>341.39278863146</v>
       </c>
       <c r="AC5" t="n">
-        <v>250.1163218379041</v>
+        <v>308.8107400323634</v>
       </c>
       <c r="AD5" t="n">
-        <v>202087.9372249489</v>
+        <v>249511.6071892951</v>
       </c>
       <c r="AE5" t="n">
-        <v>276505.6312016142</v>
+        <v>341392.78863146</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.910751270453642e-06</v>
+        <v>3.612779081948658e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.151041666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>250116.321837904</v>
+        <v>308810.7400323633</v>
       </c>
     </row>
     <row r="6">
@@ -5296,28 +5296,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>202.8284395476808</v>
+        <v>250.2521095120269</v>
       </c>
       <c r="AB6" t="n">
-        <v>277.5188191482324</v>
+        <v>342.4059765780781</v>
       </c>
       <c r="AC6" t="n">
-        <v>251.0328125489154</v>
+        <v>309.7272307433748</v>
       </c>
       <c r="AD6" t="n">
-        <v>202828.4395476808</v>
+        <v>250252.1095120269</v>
       </c>
       <c r="AE6" t="n">
-        <v>277518.8191482323</v>
+        <v>342405.9765780781</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.90744899146051e-06</v>
+        <v>3.606535252804788e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.170572916666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>251032.8125489154</v>
+        <v>309727.2307433748</v>
       </c>
     </row>
   </sheetData>
@@ -5593,28 +5593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.3218397068409</v>
+        <v>196.2344437762625</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.5722404676744</v>
+        <v>268.49662322722</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.3344687459132</v>
+        <v>242.8716823438702</v>
       </c>
       <c r="AD2" t="n">
-        <v>147321.8397068409</v>
+        <v>196234.4437762625</v>
       </c>
       <c r="AE2" t="n">
-        <v>201572.2404676744</v>
+        <v>268496.62322722</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.133577145717361e-06</v>
+        <v>4.891368018957645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.736979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>182334.4687459132</v>
+        <v>242871.6823438702</v>
       </c>
     </row>
   </sheetData>
@@ -5890,28 +5890,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.7672691526582</v>
+        <v>312.96833144346</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.9013760243145</v>
+        <v>428.2170782692637</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.938858733687</v>
+        <v>387.3486413256885</v>
       </c>
       <c r="AD2" t="n">
-        <v>244767.2691526582</v>
+        <v>312968.33144346</v>
       </c>
       <c r="AE2" t="n">
-        <v>334901.3760243144</v>
+        <v>428217.0782692637</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.635651348818954e-06</v>
+        <v>3.205854039091165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.90234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>302938.858733687</v>
+        <v>387348.6413256885</v>
       </c>
     </row>
     <row r="3">
@@ -5996,28 +5996,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.2613294288375</v>
+        <v>241.7572407494443</v>
       </c>
       <c r="AB3" t="n">
-        <v>268.5334093631845</v>
+        <v>330.7829223699582</v>
       </c>
       <c r="AC3" t="n">
-        <v>242.9049576626479</v>
+        <v>299.2134645158151</v>
       </c>
       <c r="AD3" t="n">
-        <v>196261.3294288375</v>
+        <v>241757.2407494443</v>
       </c>
       <c r="AE3" t="n">
-        <v>268533.4093631845</v>
+        <v>330782.9223699582</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.927548913320106e-06</v>
+        <v>3.777969231508295e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.404947916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>242904.9576626479</v>
+        <v>299213.4645158151</v>
       </c>
     </row>
     <row r="4">
@@ -6102,28 +6102,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>186.8298642638091</v>
+        <v>232.3257755844159</v>
       </c>
       <c r="AB4" t="n">
-        <v>255.6288626375219</v>
+        <v>317.8783756442956</v>
       </c>
       <c r="AC4" t="n">
-        <v>231.2320027648333</v>
+        <v>287.5405096180006</v>
       </c>
       <c r="AD4" t="n">
-        <v>186829.8642638091</v>
+        <v>232325.7755844159</v>
       </c>
       <c r="AE4" t="n">
-        <v>255628.8626375219</v>
+        <v>317878.3756442956</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.997183387285735e-06</v>
+        <v>3.914451838137081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.111979166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>231232.0027648333</v>
+        <v>287540.5096180006</v>
       </c>
     </row>
   </sheetData>
@@ -6399,28 +6399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.4679777688213</v>
+        <v>338.6121127528236</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.7486605572125</v>
+        <v>463.3040311805216</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.1242269882592</v>
+        <v>419.0869446959436</v>
       </c>
       <c r="AD2" t="n">
-        <v>280467.9777688213</v>
+        <v>338612.1127528236</v>
       </c>
       <c r="AE2" t="n">
-        <v>383748.6605572125</v>
+        <v>463304.0311805216</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.518686514919022e-06</v>
+        <v>2.919983241669182e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.44921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>347124.2269882592</v>
+        <v>419086.9446959436</v>
       </c>
     </row>
     <row r="3">
@@ -6505,28 +6505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.2838106907522</v>
+        <v>271.4278561662061</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.8243192045962</v>
+        <v>371.3795673584967</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.9730157577999</v>
+        <v>335.9356226842976</v>
       </c>
       <c r="AD3" t="n">
-        <v>213283.8106907522</v>
+        <v>271427.8561662061</v>
       </c>
       <c r="AE3" t="n">
-        <v>291824.3192045962</v>
+        <v>371379.5673584967</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.822482319863178e-06</v>
+        <v>3.504092371902445e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.7109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>263973.0157578</v>
+        <v>335935.6226842976</v>
       </c>
     </row>
     <row r="4">
@@ -6611,28 +6611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>196.0522451110906</v>
+        <v>242.5505028290877</v>
       </c>
       <c r="AB4" t="n">
-        <v>268.2473309754942</v>
+        <v>331.8682985435788</v>
       </c>
       <c r="AC4" t="n">
-        <v>242.6461821947651</v>
+        <v>300.1952539107608</v>
       </c>
       <c r="AD4" t="n">
-        <v>196052.2451110906</v>
+        <v>242550.5028290877</v>
       </c>
       <c r="AE4" t="n">
-        <v>268247.3309754942</v>
+        <v>331868.2985435788</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.940802534674936e-06</v>
+        <v>3.731587013493736e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>242646.1821947651</v>
+        <v>300195.2539107608</v>
       </c>
     </row>
     <row r="5">
@@ -6717,28 +6717,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>194.9755176079094</v>
+        <v>241.4737753259065</v>
       </c>
       <c r="AB5" t="n">
-        <v>266.7741049037774</v>
+        <v>330.3950724718621</v>
       </c>
       <c r="AC5" t="n">
-        <v>241.3135587516467</v>
+        <v>298.8626304676425</v>
       </c>
       <c r="AD5" t="n">
-        <v>194975.5176079094</v>
+        <v>241473.7753259065</v>
       </c>
       <c r="AE5" t="n">
-        <v>266774.1049037774</v>
+        <v>330395.0724718621</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.950235975781683e-06</v>
+        <v>3.749724719776355e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.138020833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>241313.5587516467</v>
+        <v>298862.6304676424</v>
       </c>
     </row>
   </sheetData>
@@ -7014,28 +7014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>345.3448702873617</v>
+        <v>417.9020029235789</v>
       </c>
       <c r="AB2" t="n">
-        <v>472.5160870675758</v>
+        <v>571.7919569352252</v>
       </c>
       <c r="AC2" t="n">
-        <v>427.419814898339</v>
+        <v>517.2209350803785</v>
       </c>
       <c r="AD2" t="n">
-        <v>345344.8702873617</v>
+        <v>417902.002923579</v>
       </c>
       <c r="AE2" t="n">
-        <v>472516.0870675758</v>
+        <v>571791.9569352253</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.316020815669779e-06</v>
+        <v>2.45164696411971e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>427419.814898339</v>
+        <v>517220.9350803784</v>
       </c>
     </row>
     <row r="3">
@@ -7120,28 +7120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.8061450547428</v>
+        <v>318.0998300510016</v>
       </c>
       <c r="AB3" t="n">
-        <v>352.7417412681445</v>
+        <v>435.2382210498433</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.0765645577614</v>
+        <v>393.6996960935253</v>
       </c>
       <c r="AD3" t="n">
-        <v>257806.1450547428</v>
+        <v>318099.8300510016</v>
       </c>
       <c r="AE3" t="n">
-        <v>352741.7412681445</v>
+        <v>435238.2210498433</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.648449358320015e-06</v>
+        <v>3.070936125560826e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.290364583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>319076.5645577614</v>
+        <v>393699.6960935253</v>
       </c>
     </row>
     <row r="4">
@@ -7226,28 +7226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.2178153536608</v>
+        <v>286.5967516959397</v>
       </c>
       <c r="AB4" t="n">
-        <v>309.5211949923932</v>
+        <v>392.1343194267191</v>
       </c>
       <c r="AC4" t="n">
-        <v>279.9809265581363</v>
+        <v>354.7095703446061</v>
       </c>
       <c r="AD4" t="n">
-        <v>226217.8153536608</v>
+        <v>286596.7516959397</v>
       </c>
       <c r="AE4" t="n">
-        <v>309521.1949923933</v>
+        <v>392134.3194267191</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.776348116749252e-06</v>
+        <v>3.309201811851002e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.626302083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>279980.9265581364</v>
+        <v>354709.5703446061</v>
       </c>
     </row>
     <row r="5">
@@ -7332,28 +7332,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>214.2593265808369</v>
+        <v>262.5454969922972</v>
       </c>
       <c r="AB5" t="n">
-        <v>293.1590630821332</v>
+        <v>359.2263316747241</v>
       </c>
       <c r="AC5" t="n">
-        <v>265.18037355299</v>
+        <v>324.9422747570107</v>
       </c>
       <c r="AD5" t="n">
-        <v>214259.3265808369</v>
+        <v>262545.4969922972</v>
       </c>
       <c r="AE5" t="n">
-        <v>293159.0630821332</v>
+        <v>359226.3316747241</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.847073589125684e-06</v>
+        <v>3.440958002614114e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.294270833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>265180.37355299</v>
+        <v>324942.2747570107</v>
       </c>
     </row>
     <row r="6">
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>209.6465876345091</v>
+        <v>257.9327580459661</v>
       </c>
       <c r="AB6" t="n">
-        <v>286.8477101560907</v>
+        <v>352.9149787485071</v>
       </c>
       <c r="AC6" t="n">
-        <v>259.4713672921675</v>
+        <v>319.2332684961385</v>
       </c>
       <c r="AD6" t="n">
-        <v>209646.5876345091</v>
+        <v>257932.7580459661</v>
       </c>
       <c r="AE6" t="n">
-        <v>286847.7101560907</v>
+        <v>352914.978748507</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.869566453926705e-06</v>
+        <v>3.48286050373505e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.190104166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>259471.3672921675</v>
+        <v>319233.2684961385</v>
       </c>
     </row>
   </sheetData>
@@ -7735,28 +7735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.5284436230469</v>
+        <v>276.9602688680027</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.1049897100906</v>
+        <v>378.9492584899175</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.1770749027741</v>
+        <v>342.7828731182637</v>
       </c>
       <c r="AD2" t="n">
-        <v>221528.4436230469</v>
+        <v>276960.2688680027</v>
       </c>
       <c r="AE2" t="n">
-        <v>303104.9897100906</v>
+        <v>378949.2584899175</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.767003249591251e-06</v>
+        <v>3.541953340019091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>274177.0749027741</v>
+        <v>342782.8731182637</v>
       </c>
     </row>
     <row r="3">
@@ -7841,28 +7841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.9756343901766</v>
+        <v>224.3723170005916</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.250602937142</v>
+        <v>306.996102728084</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.7487910077845</v>
+        <v>277.6968255555428</v>
       </c>
       <c r="AD3" t="n">
-        <v>179975.6343901766</v>
+        <v>224372.3170005916</v>
       </c>
       <c r="AE3" t="n">
-        <v>246250.602937142</v>
+        <v>306996.102728084</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.03034833199216e-06</v>
+        <v>4.069827861134584e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.1640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>222748.7910077845</v>
+        <v>277696.8255555428</v>
       </c>
     </row>
     <row r="4">
@@ -7947,28 +7947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.5190061967806</v>
+        <v>223.9156888071956</v>
       </c>
       <c r="AB4" t="n">
-        <v>245.6258240979238</v>
+        <v>306.3713238888658</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.1836401840986</v>
+        <v>277.1316747318568</v>
       </c>
       <c r="AD4" t="n">
-        <v>179519.0061967806</v>
+        <v>223915.6888071956</v>
       </c>
       <c r="AE4" t="n">
-        <v>245625.8240979238</v>
+        <v>306371.3238888658</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.040300770346959e-06</v>
+        <v>4.089777497492225e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH4" t="n">
-        <v>222183.6401840986</v>
+        <v>277131.6747318568</v>
       </c>
     </row>
   </sheetData>
@@ -8244,28 +8244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.1792895800871</v>
+        <v>229.320193759875</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.0562764850675</v>
+        <v>313.7660059950489</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.0502037820114</v>
+        <v>283.8206187563297</v>
       </c>
       <c r="AD2" t="n">
-        <v>176179.2895800871</v>
+        <v>229320.193759875</v>
       </c>
       <c r="AE2" t="n">
-        <v>241056.2764850674</v>
+        <v>313766.005995049</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.004331730310993e-06</v>
+        <v>4.193187326541861e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.61328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>218050.2037820114</v>
+        <v>283820.6187563297</v>
       </c>
     </row>
     <row r="3">
@@ -8350,28 +8350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.7175842794275</v>
+        <v>209.2133289608945</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.1103538717337</v>
+        <v>286.2549065248278</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.3398218531736</v>
+        <v>258.9351400074671</v>
       </c>
       <c r="AD3" t="n">
-        <v>166717.5842794275</v>
+        <v>209213.3289608945</v>
       </c>
       <c r="AE3" t="n">
-        <v>228110.3538717337</v>
+        <v>286254.9065248278</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.105669877164561e-06</v>
+        <v>4.405193067236136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.196614583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>206339.8218531736</v>
+        <v>258935.1400074671</v>
       </c>
     </row>
   </sheetData>
@@ -14444,28 +14444,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.7784194102861</v>
+        <v>198.7547088758409</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.8793941296597</v>
+        <v>271.9449611227106</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.2761677426194</v>
+        <v>245.9909157103889</v>
       </c>
       <c r="AD2" t="n">
-        <v>157778.4194102861</v>
+        <v>198754.7088758409</v>
       </c>
       <c r="AE2" t="n">
-        <v>215879.3941296597</v>
+        <v>271944.9611227106</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.131755583727028e-06</v>
+        <v>4.6341291756095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.37890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>195276.1677426194</v>
+        <v>245990.9157103889</v>
       </c>
     </row>
     <row r="3">
@@ -14550,28 +14550,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.5154390804774</v>
+        <v>199.4917285460322</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.887816957428</v>
+        <v>272.9533839504789</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.1883481110362</v>
+        <v>246.9030960788056</v>
       </c>
       <c r="AD3" t="n">
-        <v>158515.4390804774</v>
+        <v>199491.7285460322</v>
       </c>
       <c r="AE3" t="n">
-        <v>216887.816957428</v>
+        <v>272953.3839504789</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.130274474111716e-06</v>
+        <v>4.630909456926465e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.385416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>196188.3481110362</v>
+        <v>246903.0960788056</v>
       </c>
     </row>
   </sheetData>
@@ -14847,28 +14847,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.1696968459352</v>
+        <v>189.219295718648</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.8370483608569</v>
+        <v>258.8981881683069</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.0968107629763</v>
+        <v>234.1893084554885</v>
       </c>
       <c r="AD2" t="n">
-        <v>151169.6968459353</v>
+        <v>189219.295718648</v>
       </c>
       <c r="AE2" t="n">
-        <v>206837.0483608569</v>
+        <v>258898.188168307</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.089696434305849e-06</v>
+        <v>4.97039931457447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.173177083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>187096.8107629763</v>
+        <v>234189.3084554885</v>
       </c>
     </row>
   </sheetData>
@@ -15144,28 +15144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.5240200968211</v>
+        <v>325.0550502565683</v>
       </c>
       <c r="AB2" t="n">
-        <v>366.0381666232719</v>
+        <v>444.7546601777594</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.1039977385395</v>
+        <v>402.3078996274793</v>
       </c>
       <c r="AD2" t="n">
-        <v>267524.0200968211</v>
+        <v>325055.0502565684</v>
       </c>
       <c r="AE2" t="n">
-        <v>366038.1666232719</v>
+        <v>444754.6601777594</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.579614388701886e-06</v>
+        <v>3.065365239204763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.14973958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>331103.9977385395</v>
+        <v>402307.8996274793</v>
       </c>
     </row>
     <row r="3">
@@ -15250,28 +15250,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.6404101264057</v>
+        <v>250.818776185591</v>
       </c>
       <c r="AB3" t="n">
-        <v>279.9980372325427</v>
+        <v>343.1813149204173</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.2754175388644</v>
+        <v>310.4285718825155</v>
       </c>
       <c r="AD3" t="n">
-        <v>204640.4101264057</v>
+        <v>250818.776185591</v>
       </c>
       <c r="AE3" t="n">
-        <v>279998.0372325427</v>
+        <v>343181.3149204173</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.875339709562942e-06</v>
+        <v>3.639243348573667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.548177083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>253275.4175388645</v>
+        <v>310428.5718825156</v>
       </c>
     </row>
     <row r="4">
@@ -15356,28 +15356,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.8273293531378</v>
+        <v>236.8351032117309</v>
       </c>
       <c r="AB4" t="n">
-        <v>261.0983707284519</v>
+        <v>324.0482366414795</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.1795086800695</v>
+        <v>293.1215277410695</v>
       </c>
       <c r="AD4" t="n">
-        <v>190827.3293531378</v>
+        <v>236835.1032117309</v>
       </c>
       <c r="AE4" t="n">
-        <v>261098.3707284519</v>
+        <v>324048.2366414795</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.97076356434628e-06</v>
+        <v>3.824420800447949e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.131510416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>236179.5086800695</v>
+        <v>293121.5277410696</v>
       </c>
     </row>
     <row r="5">
@@ -15462,28 +15462,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>191.086737899309</v>
+        <v>237.0945117579021</v>
       </c>
       <c r="AB5" t="n">
-        <v>261.4533049456205</v>
+        <v>324.4031708586482</v>
       </c>
       <c r="AC5" t="n">
-        <v>236.500568473705</v>
+        <v>293.442587534705</v>
       </c>
       <c r="AD5" t="n">
-        <v>191086.737899309</v>
+        <v>237094.5117579021</v>
       </c>
       <c r="AE5" t="n">
-        <v>261453.3049456205</v>
+        <v>324403.1708586482</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.968867889212555e-06</v>
+        <v>3.82074209461866e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.138020833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>236500.5684737049</v>
+        <v>293442.587534705</v>
       </c>
     </row>
   </sheetData>
@@ -15759,28 +15759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.8059188139167</v>
+        <v>403.5563108380713</v>
       </c>
       <c r="AB2" t="n">
-        <v>453.9914963652245</v>
+        <v>552.1635481365659</v>
       </c>
       <c r="AC2" t="n">
-        <v>410.6631851331937</v>
+        <v>499.4658340688184</v>
       </c>
       <c r="AD2" t="n">
-        <v>331805.9188139167</v>
+        <v>403556.3108380713</v>
       </c>
       <c r="AE2" t="n">
-        <v>453991.4963652245</v>
+        <v>552163.5481365658</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.361461644891574e-06</v>
+        <v>2.554636050888696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.34765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>410663.1851331937</v>
+        <v>499465.8340688184</v>
       </c>
     </row>
     <row r="3">
@@ -15865,28 +15865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.7028125988488</v>
+        <v>297.6502249239008</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.6544043081985</v>
+        <v>407.2581691420381</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.047387476094</v>
+        <v>368.3900210695515</v>
       </c>
       <c r="AD3" t="n">
-        <v>249702.8125988488</v>
+        <v>297650.2249239008</v>
       </c>
       <c r="AE3" t="n">
-        <v>341654.4043081985</v>
+        <v>407258.1691420381</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.688470554649458e-06</v>
+        <v>3.168233028052036e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.147135416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>309047.387476094</v>
+        <v>368390.0210695515</v>
       </c>
     </row>
     <row r="4">
@@ -15971,28 +15971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.4833470996337</v>
+        <v>266.3454185701137</v>
       </c>
       <c r="AB4" t="n">
-        <v>298.9385543065815</v>
+        <v>364.4255520182012</v>
       </c>
       <c r="AC4" t="n">
-        <v>270.4082782465456</v>
+        <v>329.645288808058</v>
       </c>
       <c r="AD4" t="n">
-        <v>218483.3470996337</v>
+        <v>266345.4185701137</v>
       </c>
       <c r="AE4" t="n">
-        <v>298938.5543065814</v>
+        <v>364425.5520182013</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.819615741325429e-06</v>
+        <v>3.41431283723362e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.489583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>270408.2782465456</v>
+        <v>329645.288808058</v>
       </c>
     </row>
     <row r="5">
@@ -16077,28 +16077,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>207.2074597894586</v>
+        <v>255.0695312599352</v>
       </c>
       <c r="AB5" t="n">
-        <v>283.5103878317682</v>
+        <v>348.9973855432108</v>
       </c>
       <c r="AC5" t="n">
-        <v>256.452554326516</v>
+        <v>315.6895648879779</v>
       </c>
       <c r="AD5" t="n">
-        <v>207207.4597894586</v>
+        <v>255069.5312599352</v>
       </c>
       <c r="AE5" t="n">
-        <v>283510.3878317682</v>
+        <v>348997.3855432108</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.883100639940642e-06</v>
+        <v>3.533435407669567e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>256452.554326516</v>
+        <v>315689.5648879779</v>
       </c>
     </row>
     <row r="6">
@@ -16183,28 +16183,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>205.9633949682293</v>
+        <v>253.825466438706</v>
       </c>
       <c r="AB6" t="n">
-        <v>281.8082034590967</v>
+        <v>347.2952011705394</v>
       </c>
       <c r="AC6" t="n">
-        <v>254.912824041341</v>
+        <v>314.1498346028029</v>
       </c>
       <c r="AD6" t="n">
-        <v>205963.3949682293</v>
+        <v>253825.466438706</v>
       </c>
       <c r="AE6" t="n">
-        <v>281808.2034590967</v>
+        <v>347295.2011705394</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.889553514538302e-06</v>
+        <v>3.545543531420904e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>254912.824041341</v>
+        <v>314149.8346028029</v>
       </c>
     </row>
   </sheetData>
@@ -16480,28 +16480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.6585323477604</v>
+        <v>199.3742458179062</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.2423828941254</v>
+        <v>272.7926388988848</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.1771449478078</v>
+        <v>246.7576923093285</v>
       </c>
       <c r="AD2" t="n">
-        <v>153658.5323477604</v>
+        <v>199374.2458179062</v>
       </c>
       <c r="AE2" t="n">
-        <v>210242.3828941254</v>
+        <v>272792.6388988848</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.94796926526413e-06</v>
+        <v>4.871723301950349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.18880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>190177.1449478078</v>
+        <v>246757.6923093285</v>
       </c>
     </row>
   </sheetData>
@@ -16777,28 +16777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.4216629723515</v>
+        <v>241.4060569894938</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.4385877388656</v>
+        <v>330.3024172564601</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.9644488389614</v>
+        <v>298.778818135956</v>
       </c>
       <c r="AD2" t="n">
-        <v>187421.6629723515</v>
+        <v>241406.0569894938</v>
       </c>
       <c r="AE2" t="n">
-        <v>256438.5877388656</v>
+        <v>330302.4172564601</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.920849172515939e-06</v>
+        <v>3.955572926503961e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>231964.4488389614</v>
+        <v>298778.818135956</v>
       </c>
     </row>
     <row r="3">
@@ -16883,28 +16883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.9241024803466</v>
+        <v>214.0946390316972</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.865897652714</v>
+        <v>292.9337303118984</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.5460646136554</v>
+        <v>264.9765462260899</v>
       </c>
       <c r="AD3" t="n">
-        <v>170924.1024803466</v>
+        <v>214094.6390316972</v>
       </c>
       <c r="AE3" t="n">
-        <v>233865.897652714</v>
+        <v>292933.7303118985</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.085977874316893e-06</v>
+        <v>4.295619730583359e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.157552083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>211546.0646136554</v>
+        <v>264976.5462260899</v>
       </c>
     </row>
   </sheetData>
@@ -17180,28 +17180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.8437709029262</v>
+        <v>288.1503075467968</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.218875574536</v>
+        <v>394.2599630799087</v>
       </c>
       <c r="AC2" t="n">
-        <v>286.9439513092845</v>
+        <v>356.632345550895</v>
       </c>
       <c r="AD2" t="n">
-        <v>231843.7709029262</v>
+        <v>288150.3075467968</v>
       </c>
       <c r="AE2" t="n">
-        <v>317218.875574536</v>
+        <v>394259.9630799087</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.708167510857581e-06</v>
+        <v>3.38419433277466e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.58984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>286943.9513092845</v>
+        <v>356632.345550895</v>
       </c>
     </row>
     <row r="3">
@@ -17286,28 +17286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.1879791253593</v>
+        <v>233.1479570944323</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.487095306893</v>
+        <v>319.0033206583878</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.9128883162862</v>
+        <v>288.5580914588185</v>
       </c>
       <c r="AD3" t="n">
-        <v>188187.9791253593</v>
+        <v>233147.9570944323</v>
       </c>
       <c r="AE3" t="n">
-        <v>257487.095306893</v>
+        <v>319003.3206583878</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.977986736845129e-06</v>
+        <v>3.918755896354729e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>232912.8883162862</v>
+        <v>288558.0914588185</v>
       </c>
     </row>
     <row r="4">
@@ -17392,28 +17392,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>183.3848241619625</v>
+        <v>228.3448021310356</v>
       </c>
       <c r="AB4" t="n">
-        <v>250.915206785735</v>
+        <v>312.4314321372298</v>
       </c>
       <c r="AC4" t="n">
-        <v>226.9682116118819</v>
+        <v>282.6134147544142</v>
       </c>
       <c r="AD4" t="n">
-        <v>183384.8241619625</v>
+        <v>228344.8021310355</v>
       </c>
       <c r="AE4" t="n">
-        <v>250915.206785735</v>
+        <v>312431.4321372298</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.01559439513819e-06</v>
+        <v>3.9932635914463e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH4" t="n">
-        <v>226968.2116118819</v>
+        <v>282613.4147544142</v>
       </c>
     </row>
   </sheetData>
